--- a/Templates/InVivoEphysMetadata-FALCON.xlsx
+++ b/Templates/InVivoEphysMetadata-FALCON.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Cell ID</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>PatchmasterFiles</t>
+  </si>
+  <si>
+    <t>FALCONFIles</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +201,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -203,21 +215,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,11 +264,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -244,11 +335,45 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="23">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,271 +672,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="9" width="8.83203125" style="2"/>
-    <col min="10" max="10" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="2"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
-    <col min="23" max="23" width="12.5" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="10.5" customWidth="1"/>
-    <col min="32" max="34" width="9.83203125" style="2" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="18.6640625" customWidth="1"/>
-    <col min="38" max="38" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="10"/>
+    <col min="6" max="7" width="13.6640625" style="10" customWidth="1"/>
+    <col min="8" max="13" width="8.83203125" style="10"/>
+    <col min="14" max="14" width="13.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" style="2"/>
+    <col min="23" max="25" width="8.83203125" style="11"/>
+    <col min="26" max="26" width="10.5" style="11" customWidth="1"/>
+    <col min="27" max="28" width="8.83203125" style="11"/>
+    <col min="29" max="29" width="18.6640625" style="11" customWidth="1"/>
+    <col min="30" max="30" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.83203125" customWidth="1"/>
+    <col min="35" max="35" width="12.83203125" style="2" customWidth="1"/>
+    <col min="36" max="38" width="9.83203125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" customWidth="1"/>
+    <col min="40" max="40" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="56">
+    <row r="1" spans="1:40" ht="56">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="X1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B2">
+        <v>23.4</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10">
+        <v>133</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1.88</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1.26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="10">
         <v>40</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="L2" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="M2" s="10">
         <v>5</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9">
-        <v>133</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.88</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G2" s="2">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N2" s="1">
-        <v>42036</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>41986</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>26</v>
-      </c>
-      <c r="R2" s="1">
-        <v>41986</v>
       </c>
       <c r="S2" s="1">
         <v>41986</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="1">
+        <v>41986</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V2">
-        <v>23.4</v>
-      </c>
-      <c r="W2">
-        <v>35</v>
-      </c>
-      <c r="X2">
+      <c r="W2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="11">
         <v>15</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Z2">
+      <c r="AB2" s="11">
         <v>6.5</v>
       </c>
-      <c r="AA2">
+      <c r="AC2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2">
         <v>1.2</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <v>80</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <v>900</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AI2" s="2">
         <v>50</v>
       </c>
-      <c r="AE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="2">
+      <c r="AJ2" s="2">
         <v>300</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AK2" s="2">
         <v>50</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AL2" s="2">
         <v>60</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2">
-        <v>20</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AM2" s="1">
+        <v>42036</v>
+      </c>
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
